--- a/src/test/resources/excel/odevTHY.xlsx
+++ b/src/test/resources/excel/odevTHY.xlsx
@@ -5,7 +5,6 @@
   <sheets>
     <sheet state="visible" name="Uçuş Yönü" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Yolcu Bilgileri" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Cep Telefonu" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,24 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>SAW</t>
   </si>
   <si>
+    <t>Erkan</t>
+  </si>
+  <si>
     <t>ESB</t>
   </si>
   <si>
-    <t>Erkan</t>
-  </si>
-  <si>
     <t>Soylu</t>
   </si>
   <si>
-    <t>Bay</t>
-  </si>
-  <si>
     <t>erkan.soylu@testinium.com</t>
+  </si>
+  <si>
+    <t>Testinium</t>
+  </si>
+  <si>
+    <t>Odev</t>
   </si>
 </sst>
 </file>
@@ -84,7 +86,7 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -99,10 +101,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -315,7 +313,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -332,50 +330,42 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="23.86"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2">
+        <v>6.607344974E10</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5.458814686E9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>6.607344974E10</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3">
-        <v>9.05458814686E11</v>
+      <c r="D2" s="2">
+        <v>7.0306688288E10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.458814686E9</v>
       </c>
     </row>
   </sheetData>
